--- a/tables/xls/it/70_Volontari attesi.xlsx
+++ b/tables/xls/it/70_Volontari attesi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>PROVINCIA</t>
   </si>
@@ -168,6 +168,9 @@
     <t>Maiuscolo</t>
   </si>
   <si>
+    <t>D.V.G.</t>
+  </si>
+  <si>
     <t>COD. VOLONTARIO</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
   </si>
   <si>
     <t>COD. ORGANIZZAZIONE</t>
+  </si>
+  <si>
+    <t>VG</t>
   </si>
   <si>
     <t>VOLONTARI ATTESI</t>
@@ -217,15 +223,19 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,6 +542,30 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="5.856" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
@@ -602,19 +636,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
@@ -790,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -832,7 +856,7 @@
         <v>18</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
         <v>20</v>
@@ -864,7 +888,7 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
         <v>46</v>
@@ -888,7 +912,7 @@
         <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
         <v>46</v>
@@ -916,28 +940,6 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
@@ -1085,28 +1087,6 @@
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
@@ -1254,7 +1234,6 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11"/>
       <c r="C11" t="s">
         <v>49</v>
       </c>
@@ -1270,18 +1249,12 @@
       <c r="G11" t="s">
         <v>47</v>
       </c>
-      <c r="H11"/>
       <c r="I11" t="s">
         <v>47</v>
       </c>
-      <c r="J11"/>
       <c r="K11" t="s">
         <v>49</v>
       </c>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
       <c r="P11" t="s">
         <v>47</v>
       </c>
@@ -1294,9 +1267,6 @@
       <c r="S11" t="s">
         <v>47</v>
       </c>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
       <c r="W11" t="s">
         <v>47</v>
       </c>
@@ -1376,116 +1346,34 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1493,7 +1381,7 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1501,7 +1389,7 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1517,7 +1405,7 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1549,22 +1437,12 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>